--- a/CROPHungerWalkSpreadsheet.xlsx
+++ b/CROPHungerWalkSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28840" windowHeight="25000"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="2" r:id="rId1"/>
@@ -1572,17 +1572,143 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1590,105 +1716,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1737,29 +1764,11 @@
     <xf numFmtId="49" fontId="29" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1779,20 +1788,11 @@
     <xf numFmtId="49" fontId="30" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="100">
@@ -2243,7 +2243,39 @@
               <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
-            <a:t>Make sure that the team abbreviation and sheet names match. Do the same on the “Summary” and “Collections” sheets and copy the formulae from another team row.</a:t>
+            <a:t>Make sure that the team abbreviation and sheet names match. Do the same on the “Summary” and “</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+              <a:sym typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>Accounts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+              <a:sym typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>” sheets and copy the formulae from another team row.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
@@ -2363,7 +2395,39 @@
               <a:cs typeface="Helvetica"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
-            <a:t>To remove a team, delete the sheet and the corresponding rows here and in the “Summary” and “Collections” sheets.</a:t>
+            <a:t>To remove a team, delete the sheet and the corresponding rows here and in the “Summary” and “</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+              <a:sym typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>Accounts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Helvetica"/>
+              <a:ea typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+              <a:sym typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>” sheets.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4524,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -4760,14 +4824,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$14</f>
         <v>Full Name of Team 7</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5021,86 +5085,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -6242,15 +6306,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -6312,14 +6376,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$15</f>
         <v>Full Name of Team 8</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -6573,86 +6637,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -7794,15 +7858,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -7864,14 +7928,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$16</f>
         <v>Unaffiliated</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -8125,86 +8189,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -9346,15 +9410,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -9372,7 +9436,7 @@
   <dimension ref="A1:IW19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E10" sqref="E10:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -9385,17 +9449,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="123" t="str">
+      <c r="A1" s="76" t="str">
         <f>Setup!B4</f>
         <v>Anytown CROP Hunger Walk</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1">
       <c r="A2" s="67">
@@ -9420,81 +9484,81 @@
       <c r="A4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="79">
         <f ca="1">E19</f>
         <v>0</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="78">
+      <c r="F4" s="78"/>
+      <c r="G4" s="81">
         <f ca="1">F19</f>
         <v>0</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="81">
         <f ca="1">G4+G5+G6</f>
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="53"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="78">
+      <c r="F5" s="78"/>
+      <c r="G5" s="81">
         <f ca="1">G19</f>
         <v>0</v>
       </c>
-      <c r="H5" s="79"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="81">
         <f>Accounts!C39</f>
         <v>0</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="78">
+      <c r="F6" s="78"/>
+      <c r="G6" s="81">
         <f>Accounts!C31+Accounts!I29</f>
         <v>0</v>
       </c>
-      <c r="H6" s="79"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="68">
         <f ca="1">B5-B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="70">
+      <c r="F7" s="84"/>
+      <c r="G7" s="68">
         <f>Accounts!F10</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="53"/>
@@ -9507,12 +9571,12 @@
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="124"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
@@ -9527,23 +9591,23 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="125" t="str">
+      <c r="A10" s="73" t="str">
         <f>Setup!B8</f>
         <v>Full Name of Team 1</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F10" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G10" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H10" s="51">
@@ -9552,23 +9616,23 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="A11" s="125" t="str">
+      <c r="A11" s="73" t="str">
         <f>Setup!B9</f>
         <v>Full Name of Team 2</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F11" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G11" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H11" s="51">
@@ -9577,23 +9641,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="125" t="str">
+      <c r="A12" s="73" t="str">
         <f>Setup!B10</f>
         <v>Full Name of Team 3</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F12" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G12" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H12" s="51">
@@ -9602,23 +9666,23 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="125" t="str">
+      <c r="A13" s="73" t="str">
         <f>Setup!B11</f>
         <v>Full Name of Team 4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F13" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G13" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H13" s="51">
@@ -9627,23 +9691,23 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="125" t="str">
+      <c r="A14" s="73" t="str">
         <f>Setup!B12</f>
         <v>Full Name of Team 5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F14" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G14" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H14" s="51">
@@ -9652,23 +9716,23 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="125" t="str">
+      <c r="A15" s="73" t="str">
         <f>Setup!B13</f>
         <v>Full Name of Team 6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F15" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G15" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H15" s="51">
@@ -9677,23 +9741,23 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="125" t="str">
+      <c r="A16" s="73" t="str">
         <f>Setup!B14</f>
         <v>Full Name of Team 7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F16" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G16" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H16" s="51">
@@ -9702,23 +9766,23 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="125" t="str">
+      <c r="A17" s="73" t="str">
         <f>Setup!B15</f>
         <v>Full Name of Team 8</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F17" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G17" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H17" s="51">
@@ -9727,23 +9791,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="125" t="str">
+      <c r="A18" s="73" t="str">
         <f>Setup!B16</f>
         <v>Unaffiliated</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="F18" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H34:I34"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H33:I33"))</f>
         <v>0</v>
       </c>
       <c r="G18" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H18" s="51">
@@ -9752,10 +9816,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="6">
         <f ca="1">SUM(E10:E18)</f>
         <v>0</v>
@@ -9817,8 +9881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JA39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -9830,18 +9894,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="44" customHeight="1">
-      <c r="A1" s="123" t="str">
+      <c r="A1" s="76" t="str">
         <f>Setup!B4</f>
         <v>Anytown CROP Hunger Walk</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -9875,22 +9939,22 @@
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="63"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="84" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="84" t="s">
+      <c r="G4" s="112"/>
+      <c r="H4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="112"/>
       <c r="K4"/>
       <c r="L4"/>
     </row>
@@ -9898,24 +9962,24 @@
       <c r="A5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="92">
         <f ca="1">E22+I26</f>
         <v>0</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="86">
-        <v>0</v>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="86">
-        <v>0</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="86">
+      <c r="C5" s="93"/>
+      <c r="D5" s="92">
+        <v>0</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="92">
+        <v>0</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="92">
         <f ca="1">B5-D5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="93"/>
       <c r="K5"/>
       <c r="L5"/>
     </row>
@@ -9923,24 +9987,24 @@
       <c r="A6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="92">
         <f ca="1">F22+I27</f>
         <v>0</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="86">
-        <v>0</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="86">
-        <v>0</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="86">
+      <c r="C6" s="93"/>
+      <c r="D6" s="92">
+        <v>0</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="92">
+        <v>0</v>
+      </c>
+      <c r="G6" s="93"/>
+      <c r="H6" s="92">
         <f t="shared" ref="H6:H8" ca="1" si="0">B6-D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="93"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
@@ -9948,24 +10012,24 @@
       <c r="A7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="92">
         <f ca="1">G22+I28</f>
         <v>0</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="86">
-        <v>0</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="86">
-        <v>0</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="86">
+      <c r="C7" s="93"/>
+      <c r="D7" s="92">
+        <v>0</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="92">
+        <v>0</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="92">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="93"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
@@ -9973,24 +10037,24 @@
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="92">
         <f>C31</f>
         <v>0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="86">
-        <v>0</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="86">
-        <v>0</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="86">
+      <c r="C8" s="93"/>
+      <c r="D8" s="92">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="F8" s="92">
+        <v>0</v>
+      </c>
+      <c r="G8" s="93"/>
+      <c r="H8" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="93"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
@@ -9998,49 +10062,49 @@
       <c r="A9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="94">
         <f>C39</f>
         <v>0</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="88">
-        <v>0</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88">
-        <v>0</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="88">
+      <c r="C9" s="95"/>
+      <c r="D9" s="94">
+        <v>0</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="F9" s="94">
+        <v>0</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="94">
         <f t="shared" ref="H9" si="1">B9-D9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="89"/>
+      <c r="I9" s="95"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="82">
+      <c r="B10" s="88">
         <f ca="1">SUM(B5:B8)-B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="82">
+      <c r="C10" s="89"/>
+      <c r="D10" s="88">
         <f t="shared" ref="D10" si="2">SUM(D5:D8)-D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="82">
+      <c r="E10" s="89"/>
+      <c r="F10" s="88">
         <f t="shared" ref="F10" si="3">SUM(F5:F8)-F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="82">
+      <c r="G10" s="89"/>
+      <c r="H10" s="88">
         <f t="shared" ref="H10" ca="1" si="4">SUM(H5:H8)-H9</f>
         <v>0</v>
       </c>
-      <c r="I10" s="83"/>
+      <c r="I10" s="89"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
@@ -10057,10 +10121,10 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
@@ -10084,29 +10148,29 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="96" t="str">
+      <c r="A13" s="102" t="str">
         <f>Setup!A8</f>
         <v>Team 1</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H13" s="5">
@@ -10119,29 +10183,29 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="96" t="str">
+      <c r="A14" s="102" t="str">
         <f>Setup!A9</f>
         <v>Team 2</v>
       </c>
-      <c r="B14" s="141"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H14" s="5">
@@ -10154,29 +10218,29 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="96" t="str">
+      <c r="A15" s="102" t="str">
         <f>Setup!A10</f>
         <v>Team 3</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H15" s="5">
@@ -10189,29 +10253,29 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="96" t="str">
+      <c r="A16" s="102" t="str">
         <f>Setup!A11</f>
         <v>Team 4</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H16" s="5">
@@ -10224,29 +10288,29 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="96" t="str">
+      <c r="A17" s="102" t="str">
         <f>Setup!A12</f>
         <v>Team 5</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H17" s="5">
@@ -10259,29 +10323,29 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="96" t="str">
+      <c r="A18" s="102" t="str">
         <f>Setup!A13</f>
         <v>Team 6</v>
       </c>
-      <c r="B18" s="141"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H18" s="5">
@@ -10294,29 +10358,29 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="96" t="str">
+      <c r="A19" s="102" t="str">
         <f>Setup!A14</f>
         <v>Team 7</v>
       </c>
-      <c r="B19" s="141"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H19" s="5">
@@ -10329,29 +10393,29 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="96" t="str">
+      <c r="A20" s="102" t="str">
         <f>Setup!A15</f>
         <v>Team 8</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H20" s="5">
@@ -10364,29 +10428,29 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="96" t="str">
+      <c r="A21" s="102" t="str">
         <f>Setup!A16</f>
         <v>Unaffiliated</v>
       </c>
-      <c r="B21" s="141"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F33")</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!G34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!G33")</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H33")</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!I34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!I33")</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J34")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J33")</f>
         <v>0</v>
       </c>
       <c r="H21" s="5">
@@ -10399,8 +10463,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="6">
         <f t="shared" ref="C22:I22" ca="1" si="7">SUM(C13:C21)</f>
         <v>0</v>
@@ -10431,65 +10495,65 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="F24" s="99" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="F24" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="113"/>
       <c r="I25" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="97"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="97"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
       <c r="I27" s="4">
         <v>0</v>
       </c>
@@ -10502,36 +10566,36 @@
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
       <c r="I28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="97"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="69"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="97"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="4">
         <v>0</v>
       </c>
@@ -10541,8 +10605,8 @@
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="7">
         <f>SUM(C26:C30)</f>
         <v>0</v>
@@ -10553,52 +10617,52 @@
       <c r="I31"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="48"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="107"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="98"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="7">
         <f>SUM(C36:C38)</f>
         <v>0</v>
@@ -10652,6 +10716,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -10665,7 +10730,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
@@ -10687,7 +10751,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -11223,14 +11287,14 @@
       <c r="IV2" s="18"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$8</f>
         <v>Full Name of Team 1</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -11484,23 +11548,23 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
@@ -11747,25 +11811,25 @@
       <c r="IV4" s="18"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -12012,25 +12076,25 @@
       <c r="IV5" s="18"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -12277,25 +12341,25 @@
       <c r="IV6" s="18"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -13673,16 +13737,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A3:E4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J6:L6"/>
@@ -13690,6 +13745,15 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -13751,14 +13815,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$9</f>
         <v>Full Name of Team 2</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -14012,86 +14076,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -15233,15 +15297,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -15303,14 +15367,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$10</f>
         <v>Full Name of Team 3</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -15564,86 +15628,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -16785,15 +16849,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -16855,14 +16919,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$11</f>
         <v>Full Name of Team 4</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -17116,86 +17180,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -18337,15 +18401,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -18407,14 +18471,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$12</f>
         <v>Full Name of Team 5</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -18668,86 +18732,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -19889,15 +19953,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -19959,14 +20023,14 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="132" t="str">
         <f>Setup!$B$13</f>
         <v>Full Name of Team 6</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -20220,86 +20284,86 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="131">
+      <c r="H4" s="129"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="134">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="110">
+      <c r="H5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110">
+      <c r="H6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="119">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="110">
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="119">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -21441,15 +21505,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>

--- a/CROPHungerWalkSpreadsheet.xlsx
+++ b/CROPHungerWalkSpreadsheet.xlsx
@@ -4,22 +4,87 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28840" windowHeight="25000"/>
+    <workbookView xWindow="3260" yWindow="480" windowWidth="28840" windowHeight="25000"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="64" r:id="rId2"/>
     <sheet name="Accounts" sheetId="65" r:id="rId3"/>
     <sheet name="Team 1" sheetId="21" r:id="rId4"/>
-    <sheet name="Team 2" sheetId="74" r:id="rId5"/>
-    <sheet name="Team 3" sheetId="75" r:id="rId6"/>
-    <sheet name="Team 4" sheetId="76" r:id="rId7"/>
-    <sheet name="Team 5" sheetId="77" r:id="rId8"/>
-    <sheet name="Team 6" sheetId="78" r:id="rId9"/>
-    <sheet name="Team 7" sheetId="80" r:id="rId10"/>
-    <sheet name="Team 8" sheetId="81" r:id="rId11"/>
-    <sheet name="Unaffiliated" sheetId="82" r:id="rId12"/>
+    <sheet name="Team 2" sheetId="84" r:id="rId5"/>
+    <sheet name="Team 3" sheetId="85" r:id="rId6"/>
+    <sheet name="Team 4" sheetId="86" r:id="rId7"/>
+    <sheet name="Team 5" sheetId="87" r:id="rId8"/>
+    <sheet name="Team 6" sheetId="88" r:id="rId9"/>
+    <sheet name="Team 7" sheetId="89" r:id="rId10"/>
+    <sheet name="Team 8" sheetId="90" r:id="rId11"/>
+    <sheet name="Unaffiliated" sheetId="91" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="TotalCash" localSheetId="3">'Team 1'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="4">'Team 2'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="5">'Team 3'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="6">'Team 4'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="7">'Team 5'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="8">'Team 6'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="9">'Team 7'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="10">'Team 8'!$H$33</definedName>
+    <definedName name="TotalCash" localSheetId="11">Unaffiliated!$H$33</definedName>
+    <definedName name="TotalChecks" localSheetId="3">'Team 1'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="4">'Team 2'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="5">'Team 3'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="6">'Team 4'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="7">'Team 5'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="8">'Team 6'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="9">'Team 7'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="10">'Team 8'!$I$33</definedName>
+    <definedName name="TotalChecks" localSheetId="11">Unaffiliated!$I$33</definedName>
+    <definedName name="TotalDue" localSheetId="3">'Team 1'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="4">'Team 2'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="5">'Team 3'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="6">'Team 4'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="7">'Team 5'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="8">'Team 6'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="9">'Team 7'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="10">'Team 8'!$L$33</definedName>
+    <definedName name="TotalDue" localSheetId="11">Unaffiliated!$L$33</definedName>
+    <definedName name="TotalOnline" localSheetId="3">'Team 1'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="4">'Team 2'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="5">'Team 3'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="6">'Team 4'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="7">'Team 5'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="8">'Team 6'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="9">'Team 7'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="10">'Team 8'!$J$33</definedName>
+    <definedName name="TotalOnline" localSheetId="11">Unaffiliated!$J$33</definedName>
+    <definedName name="TotalPledged" localSheetId="3">'Team 1'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="4">'Team 2'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="5">'Team 3'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="6">'Team 4'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="7">'Team 5'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="8">'Team 6'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="9">'Team 7'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="10">'Team 8'!$G$33</definedName>
+    <definedName name="TotalPledged" localSheetId="11">Unaffiliated!$G$33</definedName>
+    <definedName name="TotalReceived" localSheetId="3">'Team 1'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="4">'Team 2'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="5">'Team 3'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="6">'Team 4'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="7">'Team 5'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="8">'Team 6'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="9">'Team 7'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="10">'Team 8'!$K$33</definedName>
+    <definedName name="TotalReceived" localSheetId="11">Unaffiliated!$K$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="3">'Team 1'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="4">'Team 2'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="5">'Team 3'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="6">'Team 4'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="7">'Team 5'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="8">'Team 6'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="9">'Team 7'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="10">'Team 8'!$F$33</definedName>
+    <definedName name="TotalWalkers" localSheetId="11">Unaffiliated!$F$33</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -51,17 +116,6 @@
   </si>
   <si>
     <t>Full Name of Team 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Team 2</t>
-    </r>
   </si>
   <si>
     <t>Full Name of Team 2</t>
@@ -254,6 +308,9 @@
   </si>
   <si>
     <t>Lamborghini</t>
+  </si>
+  <si>
+    <t>Team 2</t>
   </si>
 </sst>
 </file>
@@ -1572,12 +1629,57 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,50 +1689,89 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1638,92 +1779,17 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="30" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1778,15 +1844,6 @@
     </xf>
     <xf numFmtId="1" fontId="24" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4673,10 +4730,10 @@
     </row>
     <row r="9" spans="1:5" ht="20">
       <c r="A9" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -4684,10 +4741,10 @@
     </row>
     <row r="10" spans="1:5" ht="20">
       <c r="A10" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -4695,10 +4752,10 @@
     </row>
     <row r="11" spans="1:5" ht="20">
       <c r="A11" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -4706,10 +4763,10 @@
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -4717,10 +4774,10 @@
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -4728,10 +4785,10 @@
     </row>
     <row r="14" spans="1:5" ht="20">
       <c r="A14" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -4739,10 +4796,10 @@
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
@@ -4750,10 +4807,10 @@
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" s="61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
@@ -4783,7 +4840,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -4824,7 +4881,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$14</f>
         <v>Full Name of Team 7</v>
       </c>
@@ -5091,80 +5148,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -5426,40 +5483,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -5467,7 +5524,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -5502,7 +5559,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -5537,7 +5594,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -5572,7 +5629,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -5607,7 +5664,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -5642,7 +5699,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -5677,7 +5734,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -5712,7 +5769,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -5747,7 +5804,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -5782,7 +5839,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -5817,7 +5874,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -5852,7 +5909,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -5887,7 +5944,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -5922,7 +5979,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -5957,7 +6014,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -5992,7 +6049,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -6027,7 +6084,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -6062,7 +6119,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -6097,7 +6154,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -6132,7 +6189,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -6165,7 +6222,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -6198,7 +6255,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -6231,7 +6288,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -6306,15 +6363,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -6335,7 +6392,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -6376,7 +6433,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$15</f>
         <v>Full Name of Team 8</v>
       </c>
@@ -6643,80 +6700,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -6978,40 +7035,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -7019,7 +7076,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -7054,7 +7111,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -7089,7 +7146,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -7124,7 +7181,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -7159,7 +7216,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -7194,7 +7251,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -7229,7 +7286,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -7264,7 +7321,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -7299,7 +7356,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -7334,7 +7391,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -7369,7 +7426,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -7404,7 +7461,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -7439,7 +7496,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -7474,7 +7531,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -7509,7 +7566,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -7544,7 +7601,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -7579,7 +7636,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -7614,7 +7671,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -7649,7 +7706,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -7684,7 +7741,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -7717,7 +7774,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -7750,7 +7807,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -7783,7 +7840,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -7858,15 +7915,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -7887,7 +7944,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -7928,7 +7985,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$16</f>
         <v>Unaffiliated</v>
       </c>
@@ -8195,80 +8252,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -8530,40 +8587,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -8571,7 +8628,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -8606,7 +8663,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -8641,7 +8698,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -8676,7 +8733,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -8711,7 +8768,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -8746,7 +8803,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -8781,7 +8838,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -8816,7 +8873,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -8851,7 +8908,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -8886,7 +8943,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -8921,7 +8978,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -8956,7 +9013,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -8991,7 +9048,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -9026,7 +9083,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -9061,7 +9118,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -9096,7 +9153,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -9131,7 +9188,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -9166,7 +9223,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -9201,7 +9258,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -9236,7 +9293,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -9269,7 +9326,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -9302,7 +9359,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -9335,7 +9392,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -9410,15 +9467,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -9436,7 +9493,7 @@
   <dimension ref="A1:IW19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -9449,17 +9506,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1">
-      <c r="A1" s="76" t="str">
+      <c r="A1" s="80" t="str">
         <f>Setup!B4</f>
         <v>Anytown CROP Hunger Walk</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1">
       <c r="A2" s="67">
@@ -9482,83 +9539,83 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="79">
+        <v>21</v>
+      </c>
+      <c r="B4" s="83">
         <f ca="1">E19</f>
         <v>0</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="81">
+      <c r="E4" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="76">
         <f ca="1">F19</f>
         <v>0</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
       <c r="A5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="81">
+        <v>22</v>
+      </c>
+      <c r="B5" s="76">
         <f ca="1">G4+G5+G6</f>
         <v>0</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="53"/>
-      <c r="E5" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="81">
+      <c r="E5" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="76">
         <f ca="1">G19</f>
         <v>0</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="81">
+        <v>23</v>
+      </c>
+      <c r="B6" s="76">
         <f>Accounts!C39</f>
         <v>0</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="81">
+      <c r="E6" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="76">
         <f>Accounts!C31+Accounts!I29</f>
         <v>0</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="68">
+        <v>24</v>
+      </c>
+      <c r="B7" s="78">
         <f ca="1">B5-B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="68">
+      <c r="E7" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="78">
         <f>Accounts!F10</f>
         <v>0</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="53"/>
@@ -9571,43 +9628,43 @@
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="73" t="str">
+      <c r="A10" s="68" t="str">
         <f>Setup!B8</f>
         <v>Full Name of Team 1</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F10" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G10" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H10" s="51">
@@ -9616,210 +9673,210 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="A11" s="73" t="str">
+      <c r="A11" s="68" t="str">
         <f>Setup!B9</f>
         <v>Full Name of Team 2</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F11" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G11" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H11" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="H11:H18" ca="1" si="1">F11+G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="73" t="str">
+      <c r="A12" s="68" t="str">
         <f>Setup!B10</f>
         <v>Full Name of Team 3</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F12" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G12" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H12" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="73" t="str">
+      <c r="A13" s="68" t="str">
         <f>Setup!B11</f>
         <v>Full Name of Team 4</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F13" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G13" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H13" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="73" t="str">
+      <c r="A14" s="68" t="str">
         <f>Setup!B12</f>
         <v>Full Name of Team 5</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F14" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G14" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H14" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="73" t="str">
+      <c r="A15" s="68" t="str">
         <f>Setup!B13</f>
         <v>Full Name of Team 6</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F15" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G15" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H15" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="73" t="str">
+      <c r="A16" s="68" t="str">
         <f>Setup!B14</f>
         <v>Full Name of Team 7</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F16" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G16" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H16" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="73" t="str">
+      <c r="A17" s="68" t="str">
         <f>Setup!B15</f>
         <v>Full Name of Team 8</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F17" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G17" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H17" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="73" t="str">
+      <c r="A18" s="68" t="str">
         <f>Setup!B16</f>
         <v>Unaffiliated</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="49">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="F18" s="50">
-        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H33:I33"))</f>
+        <f ca="1">SUM(INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalCash"):INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalChecks"))</f>
         <v>0</v>
       </c>
       <c r="G18" s="50">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H18" s="51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="6">
         <f ca="1">SUM(E10:E18)</f>
         <v>0</v>
@@ -9839,18 +9896,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E4:F4"/>
@@ -9859,11 +9909,18 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
@@ -9882,7 +9939,7 @@
   <dimension ref="A1:JA39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G21"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -9894,18 +9951,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="44" customHeight="1">
-      <c r="A1" s="76" t="str">
+      <c r="A1" s="80" t="str">
         <f>Setup!B4</f>
         <v>Anytown CROP Hunger Walk</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -9939,172 +9996,172 @@
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="63"/>
-      <c r="B4" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="90" t="s">
+      <c r="B4" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="90" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="112"/>
+      <c r="I4" s="104"/>
       <c r="K4"/>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="92">
+        <v>39</v>
+      </c>
+      <c r="B5" s="105">
         <f ca="1">E22+I26</f>
         <v>0</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="92">
-        <v>0</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="92">
-        <v>0</v>
-      </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="92">
+      <c r="C5" s="106"/>
+      <c r="D5" s="105">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="105">
+        <v>0</v>
+      </c>
+      <c r="G5" s="106"/>
+      <c r="H5" s="105">
         <f ca="1">B5-D5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="106"/>
       <c r="K5"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="92">
+        <v>40</v>
+      </c>
+      <c r="B6" s="105">
         <f ca="1">F22+I27</f>
         <v>0</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="92">
-        <v>0</v>
-      </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="92">
-        <v>0</v>
-      </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="92">
+      <c r="C6" s="106"/>
+      <c r="D6" s="105">
+        <v>0</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="105">
+        <v>0</v>
+      </c>
+      <c r="G6" s="106"/>
+      <c r="H6" s="105">
         <f t="shared" ref="H6:H8" ca="1" si="0">B6-D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="93"/>
+      <c r="I6" s="106"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="92">
+        <v>26</v>
+      </c>
+      <c r="B7" s="105">
         <f ca="1">G22+I28</f>
         <v>0</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="92">
-        <v>0</v>
-      </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="92">
-        <v>0</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="92">
+      <c r="C7" s="106"/>
+      <c r="D7" s="105">
+        <v>0</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="105">
+        <v>0</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="105">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="106"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="92">
+        <v>41</v>
+      </c>
+      <c r="B8" s="105">
         <f>C31</f>
         <v>0</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92">
-        <v>0</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="92">
-        <v>0</v>
-      </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="92">
+      <c r="C8" s="106"/>
+      <c r="D8" s="105">
+        <v>0</v>
+      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="105">
+        <v>0</v>
+      </c>
+      <c r="G8" s="106"/>
+      <c r="H8" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="106"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="94">
+        <v>23</v>
+      </c>
+      <c r="B9" s="107">
         <f>C39</f>
         <v>0</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="94">
-        <v>0</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="94">
-        <v>0</v>
-      </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="94">
+      <c r="C9" s="108"/>
+      <c r="D9" s="107">
+        <v>0</v>
+      </c>
+      <c r="E9" s="108"/>
+      <c r="F9" s="107">
+        <v>0</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="107">
         <f t="shared" ref="H9" si="1">B9-D9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="108"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="88">
+      <c r="B10" s="116">
         <f ca="1">SUM(B5:B8)-B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="88">
+      <c r="C10" s="117"/>
+      <c r="D10" s="116">
         <f t="shared" ref="D10" si="2">SUM(D5:D8)-D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="88">
+      <c r="E10" s="117"/>
+      <c r="F10" s="116">
         <f t="shared" ref="F10" si="3">SUM(F5:F8)-F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="88">
+      <c r="G10" s="117"/>
+      <c r="H10" s="116">
         <f t="shared" ref="H10" ca="1" si="4">SUM(H5:H8)-H9</f>
         <v>0</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="117"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
@@ -10121,56 +10178,56 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="102" t="str">
+      <c r="A13" s="88" t="str">
         <f>Setup!A8</f>
         <v>Team 1</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A8&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H13" s="5">
@@ -10183,29 +10240,29 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="102" t="str">
+      <c r="A14" s="88" t="str">
         <f>Setup!A9</f>
         <v>Team 2</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A9&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H14" s="5">
@@ -10218,29 +10275,29 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="102" t="str">
+      <c r="A15" s="88" t="str">
         <f>Setup!A10</f>
         <v>Team 3</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A10&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H15" s="5">
@@ -10253,29 +10310,29 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="102" t="str">
+      <c r="A16" s="88" t="str">
         <f>Setup!A11</f>
         <v>Team 4</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A11&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H16" s="5">
@@ -10288,29 +10345,29 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="102" t="str">
+      <c r="A17" s="88" t="str">
         <f>Setup!A12</f>
         <v>Team 5</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A12&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H17" s="5">
@@ -10323,29 +10380,29 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="102" t="str">
+      <c r="A18" s="88" t="str">
         <f>Setup!A13</f>
         <v>Team 6</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A13&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H18" s="5">
@@ -10358,29 +10415,29 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="102" t="str">
+      <c r="A19" s="88" t="str">
         <f>Setup!A14</f>
         <v>Team 7</v>
       </c>
-      <c r="B19" s="104"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A14&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H19" s="5">
@@ -10393,29 +10450,29 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="102" t="str">
+      <c r="A20" s="88" t="str">
         <f>Setup!A15</f>
         <v>Team 8</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A15&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H20" s="5">
@@ -10428,29 +10485,29 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="102" t="str">
+      <c r="A21" s="88" t="str">
         <f>Setup!A16</f>
         <v>Unaffiliated</v>
       </c>
-      <c r="B21" s="104"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="3">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!F33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalWalkers")</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!G33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalPledged")</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!H33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalCash")</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!I33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalChecks")</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!J33")</f>
+        <f ca="1">INDIRECT("'"&amp;Setup!$A16&amp;"'"&amp;"!TotalOnline")</f>
         <v>0</v>
       </c>
       <c r="H21" s="5">
@@ -10463,8 +10520,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="6">
         <f t="shared" ref="C22:I22" ca="1" si="7">SUM(C13:C21)</f>
         <v>0</v>
@@ -10495,107 +10552,107 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="F24" s="108" t="s">
+      <c r="A24" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="F24" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
+      <c r="A25" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="86"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1">
+      <c r="A26" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="102" t="s">
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="A27" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="96" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
+      <c r="F28" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="101"/>
+      <c r="H28" s="102"/>
       <c r="I28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="103"/>
+      <c r="A29" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="95"/>
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="F29" s="105"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="106"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="7">
         <f>SUM(I26:I28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="103"/>
+      <c r="A30" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="95"/>
       <c r="C30" s="4">
         <v>0</v>
       </c>
@@ -10605,8 +10662,8 @@
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="7">
         <f>SUM(C26:C30)</f>
         <v>0</v>
@@ -10617,52 +10674,52 @@
       <c r="I31"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="118"/>
-      <c r="C35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1">
+      <c r="A36" s="88" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="A36" s="102" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="A37" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="A37" s="102" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="A38" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="A38" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="A39" s="105"/>
-      <c r="B39" s="107"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="7">
         <f>SUM(C36:C38)</f>
         <v>0</v>
@@ -10670,6 +10727,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A38:B38"/>
@@ -10686,50 +10787,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
@@ -10751,7 +10808,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -11287,14 +11344,14 @@
       <c r="IV2" s="18"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$8</f>
         <v>Full Name of Team 1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -11548,23 +11605,23 @@
       <c r="IV3" s="28"/>
     </row>
     <row r="4" spans="1:256" ht="18" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
@@ -11811,25 +11868,25 @@
       <c r="IV4" s="18"/>
     </row>
     <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -12076,25 +12133,25 @@
       <c r="IV5" s="18"/>
     </row>
     <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -12341,25 +12398,25 @@
       <c r="IV6" s="18"/>
     </row>
     <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
+      <c r="G7" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -12865,40 +12922,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -12906,7 +12963,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -12941,7 +12998,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -12976,7 +13033,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -13011,7 +13068,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -13046,7 +13103,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -13081,7 +13138,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -13116,7 +13173,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -13151,7 +13208,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -13186,7 +13243,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -13221,7 +13278,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -13256,7 +13313,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -13291,7 +13348,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -13326,7 +13383,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -13361,7 +13418,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -13396,7 +13453,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -13431,7 +13488,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -13466,7 +13523,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -13501,7 +13558,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -13536,7 +13593,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -13571,7 +13628,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -13604,7 +13661,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -13637,7 +13694,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -13670,7 +13727,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -13737,6 +13794,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="J7:L7"/>
@@ -13753,7 +13811,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -13774,7 +13831,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -13815,7 +13872,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$9</f>
         <v>Full Name of Team 2</v>
       </c>
@@ -14082,80 +14139,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -14417,40 +14474,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -14458,7 +14515,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -14493,7 +14550,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -14528,7 +14585,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -14563,7 +14620,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -14598,7 +14655,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -14633,7 +14690,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -14668,7 +14725,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -14703,7 +14760,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -14738,7 +14795,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -14773,7 +14830,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -14808,7 +14865,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -14843,7 +14900,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -14878,7 +14935,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -14913,7 +14970,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -14948,7 +15005,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -14983,7 +15040,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -15018,7 +15075,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -15053,7 +15110,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -15088,7 +15145,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -15123,7 +15180,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -15156,7 +15213,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -15189,7 +15246,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -15222,7 +15279,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -15297,15 +15354,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -15326,7 +15383,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -15367,7 +15424,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$10</f>
         <v>Full Name of Team 3</v>
       </c>
@@ -15634,80 +15691,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -15969,40 +16026,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -16010,7 +16067,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -16045,7 +16102,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -16080,7 +16137,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -16115,7 +16172,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -16150,7 +16207,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -16185,7 +16242,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -16220,7 +16277,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -16255,7 +16312,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -16290,7 +16347,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -16325,7 +16382,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -16360,7 +16417,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -16395,7 +16452,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -16430,7 +16487,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -16465,7 +16522,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -16500,7 +16557,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -16535,7 +16592,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -16570,7 +16627,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -16605,7 +16662,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -16640,7 +16697,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -16675,7 +16732,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -16708,7 +16765,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -16741,7 +16798,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -16774,7 +16831,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -16849,15 +16906,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -16878,7 +16935,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -16919,7 +16976,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$11</f>
         <v>Full Name of Team 4</v>
       </c>
@@ -17186,80 +17243,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -17521,40 +17578,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -17562,7 +17619,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -17597,7 +17654,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -17632,7 +17689,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -17667,7 +17724,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -17702,7 +17759,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -17737,7 +17794,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -17772,7 +17829,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -17807,7 +17864,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -17842,7 +17899,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -17877,7 +17934,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -17912,7 +17969,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -17947,7 +18004,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -17982,7 +18039,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -18017,7 +18074,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -18052,7 +18109,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -18087,7 +18144,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -18122,7 +18179,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -18157,7 +18214,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -18192,7 +18249,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -18227,7 +18284,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -18260,7 +18317,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -18293,7 +18350,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -18326,7 +18383,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -18401,15 +18458,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -18430,7 +18487,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -18471,7 +18528,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$12</f>
         <v>Full Name of Team 5</v>
       </c>
@@ -18738,80 +18795,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -19073,40 +19130,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -19114,7 +19171,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -19149,7 +19206,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -19184,7 +19241,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -19219,7 +19276,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -19254,7 +19311,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -19289,7 +19346,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -19324,7 +19381,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -19359,7 +19416,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -19394,7 +19451,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -19429,7 +19486,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -19464,7 +19521,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -19499,7 +19556,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -19534,7 +19591,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -19569,7 +19626,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -19604,7 +19661,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -19639,7 +19696,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -19674,7 +19731,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -19709,7 +19766,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -19744,7 +19801,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -19779,7 +19836,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -19812,7 +19869,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -19845,7 +19902,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -19878,7 +19935,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -19953,15 +20010,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
@@ -19982,7 +20039,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -20023,7 +20080,7 @@
       <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:256" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="132" t="str">
+      <c r="A3" s="135" t="str">
         <f>Setup!$B$13</f>
         <v>Full Name of Team 6</v>
       </c>
@@ -20290,80 +20347,80 @@
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="137">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:256" ht="18" customHeight="1">
+      <c r="A5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="132"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="122">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:256" ht="18" customHeight="1">
+      <c r="A6" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="132"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="122">
+        <f>L33</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:256" ht="18" customHeight="1">
+      <c r="A7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="134">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:256" ht="18" customHeight="1">
-      <c r="A5" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="119">
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f>K33</f>
         <v>0</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-    </row>
-    <row r="6" spans="1:256" ht="18" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="119">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-    </row>
-    <row r="7" spans="1:256" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="119">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:256" s="29" customFormat="1" ht="12">
       <c r="A8" s="28"/>
@@ -20625,40 +20682,40 @@
     </row>
     <row r="9" spans="1:256" ht="17.75" customHeight="1">
       <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="18.5" customHeight="1">
@@ -20666,7 +20723,7 @@
         <v>1001</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="11"/>
@@ -20701,7 +20758,7 @@
         <v>1002</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="13"/>
@@ -20736,7 +20793,7 @@
         <v>1003</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="13"/>
@@ -20771,7 +20828,7 @@
         <v>1004</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="13"/>
@@ -20806,7 +20863,7 @@
         <v>1005</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="13"/>
@@ -20841,7 +20898,7 @@
         <v>1006</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="13"/>
@@ -20876,7 +20933,7 @@
         <v>1007</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="13"/>
@@ -20911,7 +20968,7 @@
         <v>1008</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="13"/>
@@ -20946,7 +21003,7 @@
         <v>1009</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="13"/>
@@ -20981,7 +21038,7 @@
         <v>1010</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="13"/>
@@ -21016,7 +21073,7 @@
         <v>1011</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="13"/>
@@ -21051,7 +21108,7 @@
         <v>1012</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="13"/>
@@ -21086,7 +21143,7 @@
         <v>1013</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="13"/>
@@ -21121,7 +21178,7 @@
         <v>1014</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="13"/>
@@ -21156,7 +21213,7 @@
         <v>1015</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="13"/>
@@ -21191,7 +21248,7 @@
         <v>1016</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="13"/>
@@ -21226,7 +21283,7 @@
         <v>1017</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="13"/>
@@ -21261,7 +21318,7 @@
         <v>1018</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="13"/>
@@ -21296,7 +21353,7 @@
         <v>1019</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="13"/>
@@ -21331,7 +21388,7 @@
         <v>1020</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="13"/>
@@ -21364,7 +21421,7 @@
     <row r="30" spans="1:12" ht="18.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="13"/>
@@ -21397,7 +21454,7 @@
     <row r="31" spans="1:12" ht="18.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="13"/>
@@ -21430,7 +21487,7 @@
     <row r="32" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="15"/>
@@ -21505,15 +21562,15 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape"/>
